--- a/Dashboards/MERC.xlsx
+++ b/Dashboards/MERC.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="332">
   <x:si>
     <x:t>Player</x:t>
   </x:si>
@@ -88,15 +88,15 @@
     <x:t>edamame</x:t>
   </x:si>
   <x:si>
+    <x:t>Jospejjki94</x:t>
+  </x:si>
+  <x:si>
     <x:t>Ling Ling</x:t>
   </x:si>
   <x:si>
     <x:t>BLASTER</x:t>
   </x:si>
   <x:si>
-    <x:t>Jospejjki94</x:t>
-  </x:si>
-  <x:si>
     <x:t>Izzz</x:t>
   </x:si>
   <x:si>
@@ -724,7 +724,7 @@
     <x:t>1,9 (81/43)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,9 (1613/869)</x:t>
+    <x:t>1,9 (1631/881)</x:t>
   </x:si>
   <x:si>
     <x:t>2,0 (144/73)</x:t>
@@ -757,6 +757,9 @@
     <x:t>2,0 (445/228)</x:t>
   </x:si>
   <x:si>
+    <x:t>1,5 (18/12)</x:t>
+  </x:si>
+  <x:si>
     <x:t>1,7 (125/72)</x:t>
   </x:si>
   <x:si>
@@ -901,7 +904,7 @@
     <x:t>1,4 (335/238)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,2 (607/487)</x:t>
+    <x:t>1,3 (690/547)</x:t>
   </x:si>
   <x:si>
     <x:t>1,3 (196/151)</x:t>
@@ -913,7 +916,7 @@
     <x:t>1,1 (204/183)</x:t>
   </x:si>
   <x:si>
-    <x:t>1,7 (76/46)</x:t>
+    <x:t>1,5 (159/106)</x:t>
   </x:si>
   <x:si>
     <x:t>1,1 (2601/2457)</x:t>
@@ -976,7 +979,7 @@
     <x:t>2,1 (102/49)</x:t>
   </x:si>
   <x:si>
-    <x:t>0,9 (2708/3181)</x:t>
+    <x:t>0,9 (2762/3242)</x:t>
   </x:si>
   <x:si>
     <x:t>0,6 (51/90)</x:t>
@@ -1009,10 +1012,10 @@
     <x:t>0,8 (301/383)</x:t>
   </x:si>
   <x:si>
-    <x:t>0,9 (100/109)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0,6 (1769/3052)</x:t>
+    <x:t>0,9 (154/170)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,6 (1855/3267)</x:t>
   </x:si>
   <x:si>
     <x:t>0,7 (10/14)</x:t>
@@ -1037,6 +1040,9 @@
   </x:si>
   <x:si>
     <x:t>0,7 (38/52)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>0,4 (98/222)</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1970,88 +1976,82 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="C12" s="15" t="n">
-        <x:v>8528.93334821433</x:v>
+        <x:v>8812.5288009259</x:v>
       </x:c>
       <x:c r="D12" s="15" t="n">
-        <x:v>1580552.31064584</x:v>
-      </x:c>
-      <x:c r="E12" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="F12" s="16" t="n">
-        <x:v>2784.51300000004</x:v>
-      </x:c>
-      <x:c r="G12" s="16" t="n">
-        <x:v>5535.94585416676</x:v>
-      </x:c>
-      <x:c r="H12" s="16" t="n">
-        <x:v>40464.4417500005</x:v>
-      </x:c>
-      <x:c r="I12" s="16" t="n">
-        <x:v>259.137166666798</x:v>
-      </x:c>
+        <x:v>140588.2344375</x:v>
+      </x:c>
+      <x:c r="E12" s="16" t="s"/>
+      <x:c r="F12" s="16" t="s"/>
+      <x:c r="G12" s="16" t="s"/>
+      <x:c r="H12" s="16" t="s"/>
+      <x:c r="I12" s="16" t="s"/>
       <x:c r="J12" s="16" t="n">
-        <x:v>10531.527583333</x:v>
+        <x:v>5218.78883333332</x:v>
       </x:c>
       <x:c r="K12" s="16" t="n">
-        <x:v>126.968083333224</x:v>
-      </x:c>
-      <x:c r="L12" s="16" t="s"/>
-      <x:c r="M12" s="16" t="s"/>
-      <x:c r="N12" s="16" t="s"/>
-      <x:c r="O12" s="16" t="s"/>
-      <x:c r="P12" s="16" t="s"/>
-      <x:c r="Q12" s="16" t="s"/>
-      <x:c r="R12" s="16" t="s"/>
+        <x:v>20299.5419583332</x:v>
+      </x:c>
+      <x:c r="L12" s="16" t="n">
+        <x:v>13515.6926249999</x:v>
+      </x:c>
+      <x:c r="M12" s="16" t="n">
+        <x:v>14214.1869791666</x:v>
+      </x:c>
+      <x:c r="N12" s="16" t="n">
+        <x:v>14058.39275</x:v>
+      </x:c>
+      <x:c r="O12" s="16" t="n">
+        <x:v>5556.6314583333</x:v>
+      </x:c>
+      <x:c r="P12" s="16" t="n">
+        <x:v>1792.54979166671</x:v>
+      </x:c>
+      <x:c r="Q12" s="16" t="n">
+        <x:v>1505.2369166667</x:v>
+      </x:c>
+      <x:c r="R12" s="16" t="n">
+        <x:v>3151.73789583333</x:v>
+      </x:c>
     </x:row>
     <x:row r="13" spans="1:146" x14ac:dyDescent="0.25">
       <x:c r="B13" s="14" t="s">
         <x:v>14</x:v>
       </x:c>
       <x:c r="C13" s="15" t="n">
-        <x:v>8517.24822916667</x:v>
+        <x:v>8528.93334821433</x:v>
       </x:c>
       <x:c r="D13" s="15" t="n">
-        <x:v>796436.238666667</x:v>
+        <x:v>1580552.31064584</x:v>
       </x:c>
       <x:c r="E13" s="16" t="n">
-        <x:v>3918.95600000001</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="F13" s="16" t="n">
-        <x:v>25564.5759166669</x:v>
+        <x:v>2784.51300000004</x:v>
       </x:c>
       <x:c r="G13" s="16" t="n">
-        <x:v>3102.05731250008</x:v>
+        <x:v>5535.94585416676</x:v>
       </x:c>
       <x:c r="H13" s="16" t="n">
-        <x:v>31759.9319583335</x:v>
+        <x:v>40464.4417500005</x:v>
       </x:c>
       <x:c r="I13" s="16" t="n">
-        <x:v>15.483833333361</x:v>
+        <x:v>259.137166666798</x:v>
       </x:c>
       <x:c r="J13" s="16" t="n">
-        <x:v>18699.7495624997</x:v>
+        <x:v>10531.527583333</x:v>
       </x:c>
       <x:c r="K13" s="16" t="n">
-        <x:v>7187.46074999997</x:v>
-      </x:c>
-      <x:c r="L13" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="M13" s="16" t="n">
-        <x:v>7033.51016666659</x:v>
-      </x:c>
+        <x:v>126.968083333224</x:v>
+      </x:c>
+      <x:c r="L13" s="16" t="s"/>
+      <x:c r="M13" s="16" t="s"/>
       <x:c r="N13" s="16" t="s"/>
       <x:c r="O13" s="16" t="s"/>
-      <x:c r="P13" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="Q13" s="16" t="n">
-        <x:v>4925.25324999995</x:v>
-      </x:c>
-      <x:c r="R13" s="16" t="n">
-        <x:v>0</x:v>
-      </x:c>
+      <x:c r="P13" s="16" t="s"/>
+      <x:c r="Q13" s="16" t="s"/>
+      <x:c r="R13" s="16" t="s"/>
       <x:c r="AE13" s="17" t="s"/>
     </x:row>
     <x:row r="14" spans="1:146" x14ac:dyDescent="0.25">
@@ -2059,42 +2059,48 @@
         <x:v>15</x:v>
       </x:c>
       <x:c r="C14" s="15" t="n">
-        <x:v>8503.67423379627</x:v>
+        <x:v>8517.24822916667</x:v>
       </x:c>
       <x:c r="D14" s="15" t="n">
-        <x:v>137808.543333333</x:v>
-      </x:c>
-      <x:c r="E14" s="16" t="s"/>
-      <x:c r="F14" s="16" t="s"/>
-      <x:c r="G14" s="16" t="s"/>
-      <x:c r="H14" s="16" t="s"/>
-      <x:c r="I14" s="16" t="s"/>
+        <x:v>796436.238666667</x:v>
+      </x:c>
+      <x:c r="E14" s="16" t="n">
+        <x:v>3918.95600000001</x:v>
+      </x:c>
+      <x:c r="F14" s="16" t="n">
+        <x:v>25564.5759166669</x:v>
+      </x:c>
+      <x:c r="G14" s="16" t="n">
+        <x:v>3102.05731250008</x:v>
+      </x:c>
+      <x:c r="H14" s="16" t="n">
+        <x:v>31759.9319583335</x:v>
+      </x:c>
+      <x:c r="I14" s="16" t="n">
+        <x:v>15.483833333361</x:v>
+      </x:c>
       <x:c r="J14" s="16" t="n">
-        <x:v>5218.78883333332</x:v>
+        <x:v>18699.7495624997</x:v>
       </x:c>
       <x:c r="K14" s="16" t="n">
-        <x:v>20299.5419583332</x:v>
+        <x:v>7187.46074999997</x:v>
       </x:c>
       <x:c r="L14" s="16" t="n">
-        <x:v>13515.6926249999</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="M14" s="16" t="n">
-        <x:v>14214.1869791666</x:v>
-      </x:c>
-      <x:c r="N14" s="16" t="n">
-        <x:v>14058.39275</x:v>
-      </x:c>
-      <x:c r="O14" s="16" t="n">
-        <x:v>5556.6314583333</x:v>
-      </x:c>
+        <x:v>7033.51016666659</x:v>
+      </x:c>
+      <x:c r="N14" s="16" t="s"/>
+      <x:c r="O14" s="16" t="s"/>
       <x:c r="P14" s="16" t="n">
-        <x:v>1792.54979166671</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="Q14" s="16" t="n">
-        <x:v>1505.2369166667</x:v>
+        <x:v>4925.25324999995</x:v>
       </x:c>
       <x:c r="R14" s="16" t="n">
-        <x:v>372.046791666682</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="AB14" s="16" t="s"/>
       <x:c r="AC14" s="16" t="s"/>
@@ -2159,10 +2165,10 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C16" s="15" t="n">
-        <x:v>7973.84029924242</x:v>
+        <x:v>8106.05556439394</x:v>
       </x:c>
       <x:c r="D16" s="15" t="n">
-        <x:v>157973.347083333</x:v>
+        <x:v>159427.715</x:v>
       </x:c>
       <x:c r="E16" s="16" t="s"/>
       <x:c r="F16" s="16" t="s"/>
@@ -2198,7 +2204,7 @@
         <x:v>7955.65554166667</x:v>
       </x:c>
       <x:c r="R16" s="16" t="n">
-        <x:v>2499.10383333333</x:v>
+        <x:v>3953.47175</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:146">
@@ -2384,10 +2390,10 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C21" s="15" t="n">
-        <x:v>5093.84686458332</x:v>
+        <x:v>5648.86355208329</x:v>
       </x:c>
       <x:c r="D21" s="15" t="n">
-        <x:v>428111.603958332</x:v>
+        <x:v>430331.670708332</x:v>
       </x:c>
       <x:c r="E21" s="16" t="s"/>
       <x:c r="F21" s="16" t="s"/>
@@ -2409,7 +2415,7 @@
         <x:v>6541.65525000001</x:v>
       </x:c>
       <x:c r="R21" s="16" t="n">
-        <x:v>2654.83591666666</x:v>
+        <x:v>4874.90266666654</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="1:146">
@@ -2448,10 +2454,10 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="C23" s="15" t="n">
-        <x:v>4493.18296153852</x:v>
+        <x:v>4528.77378205133</x:v>
       </x:c>
       <x:c r="D23" s="15" t="n">
-        <x:v>610951.396229168</x:v>
+        <x:v>611414.076895834</x:v>
       </x:c>
       <x:c r="E23" s="16" t="n">
         <x:v>5295.85991666664</x:v>
@@ -2491,7 +2497,7 @@
         <x:v>20654.5424166668</x:v>
       </x:c>
       <x:c r="R23" s="16" t="n">
-        <x:v>0</x:v>
+        <x:v>462.680666666594</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="1:146">
@@ -4048,7 +4054,7 @@
     </x:row>
     <x:row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <x:c r="B2" s="14" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C2" s="18" t="s">
         <x:v>80</x:v>
@@ -4448,7 +4454,7 @@
     </x:row>
     <x:row r="10" spans="1:36">
       <x:c r="B10" s="14" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C10" s="18" t="s">
         <x:v>133</x:v>
@@ -5093,7 +5099,7 @@
         <x:v>235</x:v>
       </x:c>
       <x:c r="Q22" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>236</x:v>
       </x:c>
     </x:row>
     <x:row r="23" spans="1:36">
@@ -5101,19 +5107,19 @@
         <x:v>33</x:v>
       </x:c>
       <x:c r="C23" s="18" t="s">
-        <x:v>236</x:v>
+        <x:v>237</x:v>
       </x:c>
       <x:c r="D23" s="19" t="s">
-        <x:v>237</x:v>
+        <x:v>238</x:v>
       </x:c>
       <x:c r="E23" s="19" t="s">
-        <x:v>238</x:v>
+        <x:v>239</x:v>
       </x:c>
       <x:c r="F23" s="19" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="G23" s="19" t="s">
-        <x:v>239</x:v>
+        <x:v>240</x:v>
       </x:c>
       <x:c r="H23" s="19" t="s">
         <x:v>81</x:v>
@@ -5151,46 +5157,46 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="C24" s="18" t="s">
-        <x:v>240</x:v>
+        <x:v>241</x:v>
       </x:c>
       <x:c r="D24" s="19" t="s">
         <x:v>163</x:v>
       </x:c>
       <x:c r="E24" s="19" t="s">
-        <x:v>241</x:v>
+        <x:v>242</x:v>
       </x:c>
       <x:c r="F24" s="19" t="s">
-        <x:v>242</x:v>
+        <x:v>243</x:v>
       </x:c>
       <x:c r="G24" s="19" t="s">
-        <x:v>243</x:v>
+        <x:v>244</x:v>
       </x:c>
       <x:c r="H24" s="19" t="s">
-        <x:v>244</x:v>
+        <x:v>245</x:v>
       </x:c>
       <x:c r="I24" s="19" t="s">
-        <x:v>245</x:v>
+        <x:v>246</x:v>
       </x:c>
       <x:c r="J24" s="19" t="s">
-        <x:v>246</x:v>
+        <x:v>247</x:v>
       </x:c>
       <x:c r="K24" s="19" t="s">
-        <x:v>247</x:v>
+        <x:v>248</x:v>
       </x:c>
       <x:c r="L24" s="19" t="s">
-        <x:v>248</x:v>
+        <x:v>249</x:v>
       </x:c>
       <x:c r="M24" s="19" t="s">
-        <x:v>249</x:v>
+        <x:v>250</x:v>
       </x:c>
       <x:c r="N24" s="19" t="s">
-        <x:v>250</x:v>
+        <x:v>251</x:v>
       </x:c>
       <x:c r="O24" s="19" t="s">
-        <x:v>251</x:v>
+        <x:v>252</x:v>
       </x:c>
       <x:c r="P24" s="19" t="s">
-        <x:v>252</x:v>
+        <x:v>253</x:v>
       </x:c>
       <x:c r="Q24" s="19" t="s">
         <x:v>81</x:v>
@@ -5201,7 +5207,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="C25" s="18" t="s">
-        <x:v>253</x:v>
+        <x:v>254</x:v>
       </x:c>
       <x:c r="D25" s="19" t="s">
         <x:v>88</x:v>
@@ -5234,13 +5240,13 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="N25" s="19" t="s">
-        <x:v>254</x:v>
+        <x:v>255</x:v>
       </x:c>
       <x:c r="O25" s="19" t="s">
-        <x:v>255</x:v>
+        <x:v>256</x:v>
       </x:c>
       <x:c r="P25" s="19" t="s">
-        <x:v>256</x:v>
+        <x:v>257</x:v>
       </x:c>
       <x:c r="Q25" s="19" t="s">
         <x:v>81</x:v>
@@ -5251,7 +5257,7 @@
         <x:v>9</x:v>
       </x:c>
       <x:c r="C26" s="18" t="s">
-        <x:v>257</x:v>
+        <x:v>258</x:v>
       </x:c>
       <x:c r="D26" s="19" t="s">
         <x:v>88</x:v>
@@ -5278,22 +5284,22 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="L26" s="19" t="s">
-        <x:v>258</x:v>
+        <x:v>259</x:v>
       </x:c>
       <x:c r="M26" s="19" t="s">
-        <x:v>259</x:v>
+        <x:v>260</x:v>
       </x:c>
       <x:c r="N26" s="19" t="s">
-        <x:v>260</x:v>
+        <x:v>261</x:v>
       </x:c>
       <x:c r="O26" s="19" t="s">
-        <x:v>261</x:v>
+        <x:v>262</x:v>
       </x:c>
       <x:c r="P26" s="19" t="s">
-        <x:v>262</x:v>
+        <x:v>263</x:v>
       </x:c>
       <x:c r="Q26" s="19" t="s">
-        <x:v>263</x:v>
+        <x:v>264</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="1:36">
@@ -5301,40 +5307,40 @@
         <x:v>11</x:v>
       </x:c>
       <x:c r="C27" s="18" t="s">
-        <x:v>264</x:v>
+        <x:v>265</x:v>
       </x:c>
       <x:c r="D27" s="19" t="s">
-        <x:v>265</x:v>
+        <x:v>266</x:v>
       </x:c>
       <x:c r="E27" s="19" t="s">
-        <x:v>266</x:v>
+        <x:v>267</x:v>
       </x:c>
       <x:c r="F27" s="19" t="s">
-        <x:v>267</x:v>
+        <x:v>268</x:v>
       </x:c>
       <x:c r="G27" s="19" t="s">
-        <x:v>268</x:v>
+        <x:v>269</x:v>
       </x:c>
       <x:c r="H27" s="19" t="s">
-        <x:v>269</x:v>
+        <x:v>270</x:v>
       </x:c>
       <x:c r="I27" s="19" t="s">
-        <x:v>270</x:v>
+        <x:v>271</x:v>
       </x:c>
       <x:c r="J27" s="19" t="s">
-        <x:v>271</x:v>
+        <x:v>272</x:v>
       </x:c>
       <x:c r="K27" s="19" t="s">
-        <x:v>272</x:v>
+        <x:v>273</x:v>
       </x:c>
       <x:c r="L27" s="19" t="s">
-        <x:v>273</x:v>
+        <x:v>274</x:v>
       </x:c>
       <x:c r="M27" s="19" t="s">
-        <x:v>274</x:v>
+        <x:v>275</x:v>
       </x:c>
       <x:c r="N27" s="19" t="s">
-        <x:v>275</x:v>
+        <x:v>276</x:v>
       </x:c>
       <x:c r="O27" s="19" t="s">
         <x:v>88</x:v>
@@ -5351,7 +5357,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="C28" s="18" t="s">
-        <x:v>276</x:v>
+        <x:v>277</x:v>
       </x:c>
       <x:c r="D28" s="19" t="s">
         <x:v>88</x:v>
@@ -5387,13 +5393,13 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="O28" s="19" t="s">
-        <x:v>277</x:v>
+        <x:v>278</x:v>
       </x:c>
       <x:c r="P28" s="19" t="s">
-        <x:v>278</x:v>
+        <x:v>279</x:v>
       </x:c>
       <x:c r="Q28" s="19" t="s">
-        <x:v>279</x:v>
+        <x:v>280</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:36">
@@ -5401,19 +5407,19 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="C29" s="18" t="s">
-        <x:v>280</x:v>
+        <x:v>281</x:v>
       </x:c>
       <x:c r="D29" s="19" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="E29" s="19" t="s">
-        <x:v>281</x:v>
+        <x:v>282</x:v>
       </x:c>
       <x:c r="F29" s="19" t="s">
         <x:v>81</x:v>
       </x:c>
       <x:c r="G29" s="19" t="s">
-        <x:v>282</x:v>
+        <x:v>283</x:v>
       </x:c>
       <x:c r="H29" s="19" t="s">
         <x:v>88</x:v>
@@ -5451,7 +5457,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="C30" s="18" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="D30" s="19" t="s">
         <x:v>88</x:v>
@@ -5490,7 +5496,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="P30" s="19" t="s">
-        <x:v>283</x:v>
+        <x:v>284</x:v>
       </x:c>
       <x:c r="Q30" s="19" t="s">
         <x:v>81</x:v>
@@ -5501,7 +5507,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="C31" s="18" t="s">
-        <x:v>284</x:v>
+        <x:v>285</x:v>
       </x:c>
       <x:c r="D31" s="19" t="s">
         <x:v>88</x:v>
@@ -5534,16 +5540,16 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="N31" s="19" t="s">
-        <x:v>285</x:v>
+        <x:v>286</x:v>
       </x:c>
       <x:c r="O31" s="19" t="s">
-        <x:v>286</x:v>
+        <x:v>287</x:v>
       </x:c>
       <x:c r="P31" s="19" t="s">
-        <x:v>287</x:v>
+        <x:v>288</x:v>
       </x:c>
       <x:c r="Q31" s="19" t="s">
-        <x:v>288</x:v>
+        <x:v>289</x:v>
       </x:c>
     </x:row>
     <x:row r="32" spans="1:36">
@@ -5551,49 +5557,49 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="C32" s="18" t="s">
-        <x:v>289</x:v>
+        <x:v>290</x:v>
       </x:c>
       <x:c r="D32" s="19" t="s">
-        <x:v>290</x:v>
+        <x:v>291</x:v>
       </x:c>
       <x:c r="E32" s="19" t="s">
-        <x:v>291</x:v>
+        <x:v>292</x:v>
       </x:c>
       <x:c r="F32" s="19" t="s">
-        <x:v>292</x:v>
+        <x:v>293</x:v>
       </x:c>
       <x:c r="G32" s="19" t="s">
-        <x:v>293</x:v>
+        <x:v>294</x:v>
       </x:c>
       <x:c r="H32" s="19" t="s">
-        <x:v>294</x:v>
+        <x:v>295</x:v>
       </x:c>
       <x:c r="I32" s="19" t="s">
-        <x:v>295</x:v>
+        <x:v>296</x:v>
       </x:c>
       <x:c r="J32" s="19" t="s">
-        <x:v>296</x:v>
+        <x:v>297</x:v>
       </x:c>
       <x:c r="K32" s="19" t="s">
-        <x:v>297</x:v>
+        <x:v>298</x:v>
       </x:c>
       <x:c r="L32" s="19" t="s">
-        <x:v>298</x:v>
+        <x:v>299</x:v>
       </x:c>
       <x:c r="M32" s="19" t="s">
-        <x:v>299</x:v>
+        <x:v>300</x:v>
       </x:c>
       <x:c r="N32" s="19" t="s">
-        <x:v>300</x:v>
+        <x:v>301</x:v>
       </x:c>
       <x:c r="O32" s="19" t="s">
-        <x:v>301</x:v>
+        <x:v>302</x:v>
       </x:c>
       <x:c r="P32" s="19" t="s">
-        <x:v>302</x:v>
+        <x:v>303</x:v>
       </x:c>
       <x:c r="Q32" s="19" t="s">
-        <x:v>303</x:v>
+        <x:v>304</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="1:36">
@@ -5601,7 +5607,7 @@
         <x:v>27</x:v>
       </x:c>
       <x:c r="C33" s="18" t="s">
-        <x:v>304</x:v>
+        <x:v>305</x:v>
       </x:c>
       <x:c r="D33" s="19" t="s">
         <x:v>88</x:v>
@@ -5634,16 +5640,16 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="N33" s="19" t="s">
-        <x:v>305</x:v>
+        <x:v>306</x:v>
       </x:c>
       <x:c r="O33" s="19" t="s">
-        <x:v>306</x:v>
+        <x:v>307</x:v>
       </x:c>
       <x:c r="P33" s="19" t="s">
-        <x:v>307</x:v>
+        <x:v>308</x:v>
       </x:c>
       <x:c r="Q33" s="19" t="s">
-        <x:v>308</x:v>
+        <x:v>309</x:v>
       </x:c>
     </x:row>
     <x:row r="34" spans="1:36">
@@ -5651,7 +5657,7 @@
         <x:v>17</x:v>
       </x:c>
       <x:c r="C34" s="18" t="s">
-        <x:v>309</x:v>
+        <x:v>310</x:v>
       </x:c>
       <x:c r="D34" s="19" t="s">
         <x:v>88</x:v>
@@ -5663,45 +5669,45 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="G34" s="19" t="s">
-        <x:v>310</x:v>
+        <x:v>311</x:v>
       </x:c>
       <x:c r="H34" s="19" t="s">
-        <x:v>311</x:v>
+        <x:v>312</x:v>
       </x:c>
       <x:c r="I34" s="19" t="s">
-        <x:v>312</x:v>
+        <x:v>313</x:v>
       </x:c>
       <x:c r="J34" s="19" t="s">
-        <x:v>313</x:v>
+        <x:v>314</x:v>
       </x:c>
       <x:c r="K34" s="19" t="s">
-        <x:v>314</x:v>
+        <x:v>315</x:v>
       </x:c>
       <x:c r="L34" s="19" t="s">
-        <x:v>315</x:v>
+        <x:v>316</x:v>
       </x:c>
       <x:c r="M34" s="19" t="s">
-        <x:v>316</x:v>
+        <x:v>317</x:v>
       </x:c>
       <x:c r="N34" s="19" t="s">
-        <x:v>317</x:v>
+        <x:v>318</x:v>
       </x:c>
       <x:c r="O34" s="19" t="s">
-        <x:v>318</x:v>
+        <x:v>319</x:v>
       </x:c>
       <x:c r="P34" s="19" t="s">
-        <x:v>319</x:v>
+        <x:v>320</x:v>
       </x:c>
       <x:c r="Q34" s="19" t="s">
-        <x:v>320</x:v>
+        <x:v>321</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="1:36">
       <x:c r="B35" s="14" t="s">
-        <x:v>15</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C35" s="18" t="s">
-        <x:v>321</x:v>
+        <x:v>322</x:v>
       </x:c>
       <x:c r="D35" s="19" t="s">
         <x:v>88</x:v>
@@ -5719,31 +5725,31 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="I35" s="19" t="s">
-        <x:v>322</x:v>
+        <x:v>323</x:v>
       </x:c>
       <x:c r="J35" s="19" t="s">
-        <x:v>323</x:v>
+        <x:v>324</x:v>
       </x:c>
       <x:c r="K35" s="19" t="s">
-        <x:v>324</x:v>
+        <x:v>325</x:v>
       </x:c>
       <x:c r="L35" s="19" t="s">
-        <x:v>325</x:v>
+        <x:v>326</x:v>
       </x:c>
       <x:c r="M35" s="19" t="s">
-        <x:v>326</x:v>
+        <x:v>327</x:v>
       </x:c>
       <x:c r="N35" s="19" t="s">
-        <x:v>327</x:v>
+        <x:v>328</x:v>
       </x:c>
       <x:c r="O35" s="19" t="s">
-        <x:v>328</x:v>
+        <x:v>329</x:v>
       </x:c>
       <x:c r="P35" s="19" t="s">
-        <x:v>329</x:v>
+        <x:v>330</x:v>
       </x:c>
       <x:c r="Q35" s="19" t="s">
-        <x:v>206</x:v>
+        <x:v>331</x:v>
       </x:c>
     </x:row>
     <x:row r="36" spans="1:36">
